--- a/single-material/input.xlsx
+++ b/single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BEA49F-48F5-4DDE-BEEE-A2E742CD1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5BECD-8BBC-44B3-8D1A-AED54E37FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Right</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>DisY</t>
+  </si>
+  <si>
+    <t>Density</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -737,13 +737,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,21 +762,21 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -782,5 +784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/single-material/input.xlsx
+++ b/single-material/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5BECD-8BBC-44B3-8D1A-AED54E37FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF1C81-6D9A-49C2-A8E8-F87060F8AF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -767,18 +767,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>

--- a/single-material/input.xlsx
+++ b/single-material/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12920C16-50B3-4D90-B1E3-B584823F2A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1052A7B2-102D-425F-BFF5-9D40C02EE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,40 +765,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
